--- a/data/pca/factorExposure/factorExposure_2018-09-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0392904913738968</v>
+        <v>0.03456560983650102</v>
       </c>
       <c r="C2">
-        <v>0.0532417805437509</v>
+        <v>-0.006592231861450908</v>
       </c>
       <c r="D2">
-        <v>0.0351322679305168</v>
+        <v>-0.01016032436576966</v>
       </c>
       <c r="E2">
-        <v>0.04850448887830803</v>
+        <v>0.01550635637448136</v>
       </c>
       <c r="F2">
-        <v>-0.1317648075182283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02772951412981902</v>
+      </c>
+      <c r="G2">
+        <v>0.07648979910586981</v>
+      </c>
+      <c r="H2">
+        <v>0.01427088945740899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1277665143358233</v>
+        <v>0.08280648428552571</v>
       </c>
       <c r="C3">
-        <v>0.01786978994047134</v>
+        <v>0.03390989669143446</v>
       </c>
       <c r="D3">
-        <v>0.02902995200104969</v>
+        <v>-0.01987359444641751</v>
       </c>
       <c r="E3">
-        <v>0.06107918609233189</v>
+        <v>0.009115621185510698</v>
       </c>
       <c r="F3">
-        <v>-0.3471743648657815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.001428118805962037</v>
+      </c>
+      <c r="G3">
+        <v>0.2666162905288444</v>
+      </c>
+      <c r="H3">
+        <v>0.02542797907984188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04638907427660009</v>
+        <v>0.04593376424020537</v>
       </c>
       <c r="C4">
-        <v>0.03555254419729213</v>
+        <v>0.005350119638549503</v>
       </c>
       <c r="D4">
-        <v>-0.004234795853654013</v>
+        <v>-0.02287441838058381</v>
       </c>
       <c r="E4">
-        <v>0.06777285718918565</v>
+        <v>-0.02227168875585718</v>
       </c>
       <c r="F4">
-        <v>-0.06497382501122143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06317596295341407</v>
+      </c>
+      <c r="G4">
+        <v>0.04411809504056239</v>
+      </c>
+      <c r="H4">
+        <v>0.02631937694760906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01064241810379151</v>
+        <v>0.03074280977066277</v>
       </c>
       <c r="C6">
-        <v>0.0008878500088797862</v>
+        <v>0.00371314560279891</v>
       </c>
       <c r="D6">
-        <v>0.0102544594089393</v>
+        <v>-0.03224086414317955</v>
       </c>
       <c r="E6">
-        <v>0.008767931552982729</v>
+        <v>-0.006692850510079036</v>
       </c>
       <c r="F6">
-        <v>-0.01220676473875391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.04015924795032407</v>
+      </c>
+      <c r="G6">
+        <v>0.009909447305156919</v>
+      </c>
+      <c r="H6">
+        <v>0.05008684491488523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.024201701488655</v>
+        <v>0.02128139593809042</v>
       </c>
       <c r="C7">
-        <v>0.02030710375472383</v>
+        <v>0.00218484197171734</v>
       </c>
       <c r="D7">
-        <v>0.02660602450307311</v>
+        <v>-0.01305488498588115</v>
       </c>
       <c r="E7">
-        <v>0.03467995757922764</v>
+        <v>-0.03609576598280256</v>
       </c>
       <c r="F7">
-        <v>-0.07108671110889436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02626922134247586</v>
+      </c>
+      <c r="G7">
+        <v>0.03267668600739827</v>
+      </c>
+      <c r="H7">
+        <v>0.01833521892901349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008513834001003943</v>
+        <v>0.0009906524801797274</v>
       </c>
       <c r="C8">
-        <v>0.00976691001939883</v>
+        <v>0.0005075148973542209</v>
       </c>
       <c r="D8">
-        <v>-0.005726980035211008</v>
+        <v>-0.01332845949105648</v>
       </c>
       <c r="E8">
-        <v>0.07204346974058885</v>
+        <v>-0.01311411288393196</v>
       </c>
       <c r="F8">
-        <v>-0.08883856588091775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02797249846735564</v>
+      </c>
+      <c r="G8">
+        <v>0.05013435283612142</v>
+      </c>
+      <c r="H8">
+        <v>0.007592985774351054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03615575519565147</v>
+        <v>0.03597489155774891</v>
       </c>
       <c r="C9">
-        <v>0.02947129485947758</v>
+        <v>0.007204036762190798</v>
       </c>
       <c r="D9">
-        <v>-0.01986959504828492</v>
+        <v>-0.01859102623475326</v>
       </c>
       <c r="E9">
-        <v>0.06792066713561383</v>
+        <v>-0.02060823728367499</v>
       </c>
       <c r="F9">
-        <v>-0.07579458185839748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04012884877947179</v>
+      </c>
+      <c r="G9">
+        <v>0.06104610175236256</v>
+      </c>
+      <c r="H9">
+        <v>0.02928006379922349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05781395492821753</v>
+        <v>0.07713178244910994</v>
       </c>
       <c r="C10">
-        <v>0.04834861794321373</v>
+        <v>0.04392155470715026</v>
       </c>
       <c r="D10">
-        <v>-0.02042470791515516</v>
+        <v>0.1405916749152676</v>
       </c>
       <c r="E10">
-        <v>-0.1090175411705552</v>
+        <v>0.023905045002486</v>
       </c>
       <c r="F10">
-        <v>-0.05859653466750919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.08857949326613432</v>
+      </c>
+      <c r="G10">
+        <v>0.0385558715913531</v>
+      </c>
+      <c r="H10">
+        <v>0.006034176481094049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03126842828285099</v>
+        <v>0.02187503255590539</v>
       </c>
       <c r="C11">
-        <v>0.0108676345775328</v>
+        <v>0.0135233927215288</v>
       </c>
       <c r="D11">
-        <v>0.01341769693838301</v>
+        <v>-0.03041320856688921</v>
       </c>
       <c r="E11">
-        <v>0.03245680970490924</v>
+        <v>0.002561616708720345</v>
       </c>
       <c r="F11">
-        <v>-0.03924464262085242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02530315370531186</v>
+      </c>
+      <c r="G11">
+        <v>0.0326651214428524</v>
+      </c>
+      <c r="H11">
+        <v>0.0272956503243575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03820418644805472</v>
+        <v>0.03025991296964956</v>
       </c>
       <c r="C12">
-        <v>0.01153194824179955</v>
+        <v>0.01339893448773863</v>
       </c>
       <c r="D12">
-        <v>0.003756257720520255</v>
+        <v>-0.03018387912936977</v>
       </c>
       <c r="E12">
-        <v>0.0465597666487934</v>
+        <v>-0.007971343272594265</v>
       </c>
       <c r="F12">
-        <v>-0.02667162446358804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02894473909693936</v>
+      </c>
+      <c r="G12">
+        <v>0.007770386722074912</v>
+      </c>
+      <c r="H12">
+        <v>0.01556122854403191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01934508773847685</v>
+        <v>0.02762953546079739</v>
       </c>
       <c r="C13">
-        <v>0.02173531878406882</v>
+        <v>-0.007749389103335982</v>
       </c>
       <c r="D13">
-        <v>0.03322706673692998</v>
+        <v>-0.0009254877248987041</v>
       </c>
       <c r="E13">
-        <v>0.01809464559622661</v>
+        <v>0.01656701707737207</v>
       </c>
       <c r="F13">
-        <v>-0.08328106083142868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02075254989610938</v>
+      </c>
+      <c r="G13">
+        <v>0.06158371086829045</v>
+      </c>
+      <c r="H13">
+        <v>0.02532112007746861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01112694859248534</v>
+        <v>0.01560464689566363</v>
       </c>
       <c r="C14">
-        <v>0.02244036682751932</v>
+        <v>0.00335639296583931</v>
       </c>
       <c r="D14">
-        <v>0.002380784079390026</v>
+        <v>8.26918882140772e-05</v>
       </c>
       <c r="E14">
-        <v>0.03745063567047365</v>
+        <v>-0.007728547733524029</v>
       </c>
       <c r="F14">
-        <v>-0.0634133310147641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02626156385108148</v>
+      </c>
+      <c r="G14">
+        <v>0.03912987458088549</v>
+      </c>
+      <c r="H14">
+        <v>-0.0203675597570262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02414866457990161</v>
+        <v>0.02171950338710047</v>
       </c>
       <c r="C16">
-        <v>0.01216966758533798</v>
+        <v>0.01348005401672633</v>
       </c>
       <c r="D16">
-        <v>0.0122569209382417</v>
+        <v>-0.02945224583884563</v>
       </c>
       <c r="E16">
-        <v>0.03423165368549157</v>
+        <v>-0.002233497915351663</v>
       </c>
       <c r="F16">
-        <v>-0.03957800140172413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02818398965308805</v>
+      </c>
+      <c r="G16">
+        <v>0.02580461893268099</v>
+      </c>
+      <c r="H16">
+        <v>0.02113690054153831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03708895236916392</v>
+        <v>0.03564601373827653</v>
       </c>
       <c r="C19">
-        <v>0.0127547211426445</v>
+        <v>0.008857789222081519</v>
       </c>
       <c r="D19">
-        <v>0.01941464558133903</v>
+        <v>-0.008595128687909239</v>
       </c>
       <c r="E19">
-        <v>0.03952287781920203</v>
+        <v>0.001863680892714524</v>
       </c>
       <c r="F19">
-        <v>-0.09543293325579344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03249996240655998</v>
+      </c>
+      <c r="G19">
+        <v>0.06608707625928463</v>
+      </c>
+      <c r="H19">
+        <v>0.03619907400400416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.006894098058542072</v>
+        <v>0.007417886952813134</v>
       </c>
       <c r="C20">
-        <v>0.02156977618839823</v>
+        <v>-0.006177169480522779</v>
       </c>
       <c r="D20">
-        <v>0.00381144042379677</v>
+        <v>-0.001019614267186332</v>
       </c>
       <c r="E20">
-        <v>0.02845037771743318</v>
+        <v>-0.002115390928986655</v>
       </c>
       <c r="F20">
-        <v>-0.05994367751650669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01805967945137801</v>
+      </c>
+      <c r="G20">
+        <v>0.04767000969268666</v>
+      </c>
+      <c r="H20">
+        <v>-0.01109937263081317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003387575901326818</v>
+        <v>0.02298567223636913</v>
       </c>
       <c r="C21">
-        <v>-0.002249319517613414</v>
+        <v>-0.00129055506011125</v>
       </c>
       <c r="D21">
-        <v>0.007305909235153993</v>
+        <v>-0.0001042444548319522</v>
       </c>
       <c r="E21">
-        <v>0.03610201569280014</v>
+        <v>-0.0122811230854713</v>
       </c>
       <c r="F21">
-        <v>-0.08889316699527455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.00827000302253781</v>
+      </c>
+      <c r="G21">
+        <v>0.053169485377376</v>
+      </c>
+      <c r="H21">
+        <v>0.009534035132600654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02549207020182371</v>
+        <v>0.02242220919881671</v>
       </c>
       <c r="C24">
-        <v>0.0116118611744114</v>
+        <v>0.008634029182871934</v>
       </c>
       <c r="D24">
-        <v>0.009047610048058851</v>
+        <v>-0.02718827174691722</v>
       </c>
       <c r="E24">
-        <v>0.02677888675977926</v>
+        <v>-0.001886075404869562</v>
       </c>
       <c r="F24">
-        <v>-0.03976146544172716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02294648602078935</v>
+      </c>
+      <c r="G24">
+        <v>0.02721262472274856</v>
+      </c>
+      <c r="H24">
+        <v>0.02788166598772577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0297555022162672</v>
+        <v>0.03277119823832092</v>
       </c>
       <c r="C25">
-        <v>0.01048881781157349</v>
+        <v>0.00915955990005311</v>
       </c>
       <c r="D25">
-        <v>0.007537985932142587</v>
+        <v>-0.02140218651769707</v>
       </c>
       <c r="E25">
-        <v>0.03423217012868696</v>
+        <v>-0.001793470900961937</v>
       </c>
       <c r="F25">
-        <v>-0.04235655196252292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02774660126236667</v>
+      </c>
+      <c r="G25">
+        <v>0.03211569394039131</v>
+      </c>
+      <c r="H25">
+        <v>0.03034270540233804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01697270482014747</v>
+        <v>0.02057056006945886</v>
       </c>
       <c r="C26">
-        <v>0.0003230921055248745</v>
+        <v>-0.01436376045088363</v>
       </c>
       <c r="D26">
-        <v>0.03486387704372103</v>
+        <v>-0.007006715525866659</v>
       </c>
       <c r="E26">
-        <v>0.0442416650540035</v>
+        <v>0.006071785504445249</v>
       </c>
       <c r="F26">
-        <v>-0.06175063568431161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.006845225640624053</v>
+      </c>
+      <c r="G26">
+        <v>0.0371990253954161</v>
+      </c>
+      <c r="H26">
+        <v>0.0003269934039226799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07211936779874566</v>
+        <v>0.03153885086020662</v>
       </c>
       <c r="C27">
-        <v>0.05062988726789334</v>
+        <v>0.02020768158285417</v>
       </c>
       <c r="D27">
-        <v>-0.005290219660019201</v>
+        <v>-0.002601064795338226</v>
       </c>
       <c r="E27">
-        <v>0.04997987812058503</v>
+        <v>-0.004204138448055754</v>
       </c>
       <c r="F27">
-        <v>-0.06525463029257285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02530143294052292</v>
+      </c>
+      <c r="G27">
+        <v>0.02649956523245393</v>
+      </c>
+      <c r="H27">
+        <v>-0.001254278668260845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08457779398977118</v>
+        <v>0.1212126429257308</v>
       </c>
       <c r="C28">
-        <v>0.06254681185416602</v>
+        <v>0.05391467394039402</v>
       </c>
       <c r="D28">
-        <v>-0.0410009451258903</v>
+        <v>0.2067114445407424</v>
       </c>
       <c r="E28">
-        <v>-0.1752251175493127</v>
+        <v>0.03058300346633639</v>
       </c>
       <c r="F28">
-        <v>-0.05363030915901189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.1253371961536351</v>
+      </c>
+      <c r="G28">
+        <v>0.01818722405528515</v>
+      </c>
+      <c r="H28">
+        <v>-0.005687734988529701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01933470869046497</v>
+        <v>0.02064822695655324</v>
       </c>
       <c r="C29">
-        <v>0.02366971850388886</v>
+        <v>0.006749093688998063</v>
       </c>
       <c r="D29">
-        <v>-0.001988809812992147</v>
+        <v>-0.002704635982076615</v>
       </c>
       <c r="E29">
-        <v>0.05753147452561941</v>
+        <v>-0.008767301764818918</v>
       </c>
       <c r="F29">
-        <v>-0.05438086499683748</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02918275544496328</v>
+      </c>
+      <c r="G29">
+        <v>0.03288770794041664</v>
+      </c>
+      <c r="H29">
+        <v>-0.0197504359846145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07794995451040766</v>
+        <v>0.05470769453268996</v>
       </c>
       <c r="C30">
-        <v>0.05603331528791903</v>
+        <v>0.008861597799788214</v>
       </c>
       <c r="D30">
-        <v>0.03653846419881938</v>
+        <v>-0.04898416944437468</v>
       </c>
       <c r="E30">
-        <v>0.09742483648091969</v>
+        <v>0.03452217603065438</v>
       </c>
       <c r="F30">
-        <v>-0.07740510666035727</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.0822719398766051</v>
+      </c>
+      <c r="G30">
+        <v>0.0647541543593772</v>
+      </c>
+      <c r="H30">
+        <v>0.04002445603366161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05754497202597046</v>
+        <v>0.05191766884834268</v>
       </c>
       <c r="C31">
-        <v>0.01828210973417188</v>
+        <v>0.02643571714627618</v>
       </c>
       <c r="D31">
-        <v>0.04463462626489439</v>
+        <v>-0.01855663309273815</v>
       </c>
       <c r="E31">
-        <v>0.03382583863172298</v>
+        <v>0.008858934290115939</v>
       </c>
       <c r="F31">
-        <v>-0.0402203329455558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02186334811098323</v>
+      </c>
+      <c r="G31">
+        <v>0.01719552852293176</v>
+      </c>
+      <c r="H31">
+        <v>-0.01484405769316506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01166506852355922</v>
+        <v>0.005451047356216794</v>
       </c>
       <c r="C32">
-        <v>0.02351834610041818</v>
+        <v>0.01520893745062713</v>
       </c>
       <c r="D32">
-        <v>-0.002479821896862487</v>
+        <v>0.007134411727976507</v>
       </c>
       <c r="E32">
-        <v>0.07814717913239384</v>
+        <v>-0.01817438684254777</v>
       </c>
       <c r="F32">
-        <v>-0.07369725254779906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0445128734188</v>
+      </c>
+      <c r="G32">
+        <v>0.0497857938867245</v>
+      </c>
+      <c r="H32">
+        <v>0.0429795683463792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04856466172476056</v>
+        <v>0.03867276613155027</v>
       </c>
       <c r="C33">
-        <v>0.003450339333369563</v>
+        <v>0.008911187095654969</v>
       </c>
       <c r="D33">
-        <v>0.04119737614116971</v>
+        <v>-0.02964100226844188</v>
       </c>
       <c r="E33">
-        <v>0.06677336253838079</v>
+        <v>0.02096126087793469</v>
       </c>
       <c r="F33">
-        <v>-0.09263712543709415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01742703100152553</v>
+      </c>
+      <c r="G33">
+        <v>0.0588494105577535</v>
+      </c>
+      <c r="H33">
+        <v>0.01657474929462507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02849308716263796</v>
+        <v>0.02398599888573286</v>
       </c>
       <c r="C34">
-        <v>0.01620345103657286</v>
+        <v>0.02250432006313934</v>
       </c>
       <c r="D34">
-        <v>0.009978855282510002</v>
+        <v>-0.02589179173172076</v>
       </c>
       <c r="E34">
-        <v>0.03769516550401368</v>
+        <v>-0.006596426651083656</v>
       </c>
       <c r="F34">
-        <v>-0.04621744415326531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02811625069300596</v>
+      </c>
+      <c r="G34">
+        <v>0.02560707078104683</v>
+      </c>
+      <c r="H34">
+        <v>0.0256680504990509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01234095190683418</v>
+        <v>0.01856948264147046</v>
       </c>
       <c r="C36">
-        <v>0.009859758801408746</v>
+        <v>-0.001013203232939246</v>
       </c>
       <c r="D36">
-        <v>0.001199199480655246</v>
+        <v>0.001692223721173128</v>
       </c>
       <c r="E36">
-        <v>0.03047369967610045</v>
+        <v>-0.002434719307115951</v>
       </c>
       <c r="F36">
-        <v>-0.0335858621360956</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.006702067159622867</v>
+      </c>
+      <c r="G36">
+        <v>0.02147731663384476</v>
+      </c>
+      <c r="H36">
+        <v>-0.001927482044341611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006568125617543626</v>
+        <v>0.01279375804915311</v>
       </c>
       <c r="C38">
-        <v>-0.002476939632917414</v>
+        <v>0.01779441596277593</v>
       </c>
       <c r="D38">
-        <v>-0.0155928568600234</v>
+        <v>0.002111446240630736</v>
       </c>
       <c r="E38">
-        <v>-0.00361461933928922</v>
+        <v>-0.007301376214873924</v>
       </c>
       <c r="F38">
-        <v>-0.006683042698055126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.009787002657100538</v>
+      </c>
+      <c r="G38">
+        <v>0.02588470864030134</v>
+      </c>
+      <c r="H38">
+        <v>0.01775319004472726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03689446510966086</v>
+        <v>0.02517036557462381</v>
       </c>
       <c r="C39">
-        <v>0.02399913315954857</v>
+        <v>0.007979396853385173</v>
       </c>
       <c r="D39">
-        <v>0.02732540022791627</v>
+        <v>-0.06117224930284599</v>
       </c>
       <c r="E39">
-        <v>0.03542928636786031</v>
+        <v>0.0001997553323718078</v>
       </c>
       <c r="F39">
-        <v>-0.05136167341455333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05068882516742831</v>
+      </c>
+      <c r="G39">
+        <v>0.05176713671322461</v>
+      </c>
+      <c r="H39">
+        <v>0.04986255728066665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02865383531753848</v>
+        <v>0.02962846596401105</v>
       </c>
       <c r="C40">
-        <v>0.03878444050146896</v>
+        <v>0.007595101541857841</v>
       </c>
       <c r="D40">
-        <v>0.05130394775016333</v>
+        <v>-0.01975291182372403</v>
       </c>
       <c r="E40">
-        <v>0.04273615350959178</v>
+        <v>0.01862880619551377</v>
       </c>
       <c r="F40">
-        <v>-0.07400823482280386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.04063540951539136</v>
+      </c>
+      <c r="G40">
+        <v>0.03697276709134793</v>
+      </c>
+      <c r="H40">
+        <v>0.04452018485521558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00320713379238944</v>
+        <v>0.007531785913829624</v>
       </c>
       <c r="C41">
-        <v>-0.009532586544625125</v>
+        <v>-0.0002943799768598524</v>
       </c>
       <c r="D41">
-        <v>0.006602236979547036</v>
+        <v>0.005568647749409495</v>
       </c>
       <c r="E41">
-        <v>0.02072006080421953</v>
+        <v>0.00132010439276247</v>
       </c>
       <c r="F41">
-        <v>-0.01656460779825963</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005959127440211238</v>
+      </c>
+      <c r="G41">
+        <v>0.005984341706966352</v>
+      </c>
+      <c r="H41">
+        <v>-0.01808621064512745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3935237420558708</v>
+        <v>0.2441796976308619</v>
       </c>
       <c r="C42">
-        <v>-0.879179256884243</v>
+        <v>-0.0517020862896111</v>
       </c>
       <c r="D42">
-        <v>0.1803688274955327</v>
+        <v>-0.6275465501264783</v>
       </c>
       <c r="E42">
-        <v>-0.09025669716776971</v>
+        <v>0.08849441487934578</v>
       </c>
       <c r="F42">
-        <v>0.02294977011505446</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7163195231645538</v>
+      </c>
+      <c r="G42">
+        <v>-0.0754200919766751</v>
+      </c>
+      <c r="H42">
+        <v>0.02039391308463271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.009899974847048697</v>
+        <v>0.004854592695632296</v>
       </c>
       <c r="C43">
-        <v>-0.004488570990126435</v>
+        <v>-0.003270742095676021</v>
       </c>
       <c r="D43">
-        <v>0.01116916093770548</v>
+        <v>0.007181232809836753</v>
       </c>
       <c r="E43">
-        <v>0.02155838666092598</v>
+        <v>0.005510816036489118</v>
       </c>
       <c r="F43">
-        <v>-0.03284029741640404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01001558378740495</v>
+      </c>
+      <c r="G43">
+        <v>0.01427874678738143</v>
+      </c>
+      <c r="H43">
+        <v>-0.009828244194267047</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01485574722378278</v>
+        <v>0.0108627827166118</v>
       </c>
       <c r="C44">
-        <v>0.007405050025868611</v>
+        <v>0.001234947125514635</v>
       </c>
       <c r="D44">
-        <v>0.01948082099733705</v>
+        <v>-0.02287816651881754</v>
       </c>
       <c r="E44">
-        <v>0.052950312833685</v>
+        <v>-0.003384457685196706</v>
       </c>
       <c r="F44">
-        <v>-0.1852462127593729</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.009902292741486926</v>
+      </c>
+      <c r="G44">
+        <v>0.08603100332803984</v>
+      </c>
+      <c r="H44">
+        <v>0.01370591282696411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01733292625721552</v>
+        <v>0.02153948283269071</v>
       </c>
       <c r="C46">
-        <v>0.02061942240554902</v>
+        <v>0.003042404388406229</v>
       </c>
       <c r="D46">
-        <v>0.0133319867914896</v>
+        <v>-0.007161009371646648</v>
       </c>
       <c r="E46">
-        <v>0.05822027275496881</v>
+        <v>0.00202282643995238</v>
       </c>
       <c r="F46">
-        <v>-0.05899860827458817</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03435325797715758</v>
+      </c>
+      <c r="G46">
+        <v>0.04859535965064267</v>
+      </c>
+      <c r="H46">
+        <v>-0.01680208191328529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0932160419667999</v>
+        <v>0.07102675226581949</v>
       </c>
       <c r="C47">
-        <v>0.03347620956958183</v>
+        <v>0.0470535826602303</v>
       </c>
       <c r="D47">
-        <v>0.02328797895767997</v>
+        <v>-0.02273947783834982</v>
       </c>
       <c r="E47">
-        <v>0.05339122844036899</v>
+        <v>0.004441612354088139</v>
       </c>
       <c r="F47">
-        <v>-0.004850099225014225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03357710401730817</v>
+      </c>
+      <c r="G47">
+        <v>-0.01566615634669397</v>
+      </c>
+      <c r="H47">
+        <v>-0.02996323101524271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007768133741494446</v>
+        <v>0.01659027802805107</v>
       </c>
       <c r="C48">
-        <v>0.00585092106288329</v>
+        <v>0.008775812281217717</v>
       </c>
       <c r="D48">
-        <v>0.01292580319107785</v>
+        <v>-0.004950541598129114</v>
       </c>
       <c r="E48">
-        <v>0.04548248449597961</v>
+        <v>0.001080336564956045</v>
       </c>
       <c r="F48">
-        <v>-0.04802314335619325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01268753931106865</v>
+      </c>
+      <c r="G48">
+        <v>0.02733232230699593</v>
+      </c>
+      <c r="H48">
+        <v>0.001586450132718701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08492982716116783</v>
+        <v>0.06447942964285383</v>
       </c>
       <c r="C50">
-        <v>0.01994026238201809</v>
+        <v>0.03991071759509407</v>
       </c>
       <c r="D50">
-        <v>0.03567745988526262</v>
+        <v>-0.03524022705423571</v>
       </c>
       <c r="E50">
-        <v>0.05723300766808131</v>
+        <v>-0.00944810358709061</v>
       </c>
       <c r="F50">
-        <v>-0.03391111316399042</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0329656944253639</v>
+      </c>
+      <c r="G50">
+        <v>0.01715067174756497</v>
+      </c>
+      <c r="H50">
+        <v>-0.02418443414997639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03806216618576868</v>
+        <v>0.0257466254983676</v>
       </c>
       <c r="C51">
-        <v>0.0008939342064154344</v>
+        <v>0.005967307476822998</v>
       </c>
       <c r="D51">
-        <v>0.04546522651854296</v>
+        <v>0.003960958699328743</v>
       </c>
       <c r="E51">
-        <v>0.01272055287672331</v>
+        <v>0.01487774188689157</v>
       </c>
       <c r="F51">
-        <v>-0.1529880743578212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01646996253270231</v>
+      </c>
+      <c r="G51">
+        <v>0.0826194044451011</v>
+      </c>
+      <c r="H51">
+        <v>0.02325446915281378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1033030515128754</v>
+        <v>0.09041781181205326</v>
       </c>
       <c r="C53">
-        <v>0.04813300327619262</v>
+        <v>0.0592058096739525</v>
       </c>
       <c r="D53">
-        <v>0.0413448212499782</v>
+        <v>-0.04626198582300887</v>
       </c>
       <c r="E53">
-        <v>0.06498120818373901</v>
+        <v>0.002340024674838654</v>
       </c>
       <c r="F53">
-        <v>0.05437679990124978</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06805310743602414</v>
+      </c>
+      <c r="G53">
+        <v>-0.0598773280405445</v>
+      </c>
+      <c r="H53">
+        <v>-0.0335224243917327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01975994600103786</v>
+        <v>0.02146736709044215</v>
       </c>
       <c r="C54">
-        <v>0.03689482324284751</v>
+        <v>0.0177007337493353</v>
       </c>
       <c r="D54">
-        <v>0.002705583866390129</v>
+        <v>0.02516842420371858</v>
       </c>
       <c r="E54">
-        <v>0.03199076559504836</v>
+        <v>-0.001351451137823255</v>
       </c>
       <c r="F54">
-        <v>-0.07616101229919783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01016106475077383</v>
+      </c>
+      <c r="G54">
+        <v>0.04166368829957548</v>
+      </c>
+      <c r="H54">
+        <v>-0.01740284531712308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1007009284935255</v>
+        <v>0.07796016423191118</v>
       </c>
       <c r="C55">
-        <v>0.0344406939489927</v>
+        <v>0.0520670060260082</v>
       </c>
       <c r="D55">
-        <v>-0.004225985516098331</v>
+        <v>-0.04460077635159321</v>
       </c>
       <c r="E55">
-        <v>0.06510588662872635</v>
+        <v>-0.0108769124321971</v>
       </c>
       <c r="F55">
-        <v>0.05144357859726409</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05727180936580303</v>
+      </c>
+      <c r="G55">
+        <v>-0.03850939980446252</v>
+      </c>
+      <c r="H55">
+        <v>-0.0488500148667257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1402559348664009</v>
+        <v>0.1172696969272822</v>
       </c>
       <c r="C56">
-        <v>0.0758775003482179</v>
+        <v>0.08385345250051435</v>
       </c>
       <c r="D56">
-        <v>0.0264071074295758</v>
+        <v>-0.05929308097454054</v>
       </c>
       <c r="E56">
-        <v>0.08237783648798012</v>
+        <v>-0.003005004964810238</v>
       </c>
       <c r="F56">
-        <v>0.1576310934098117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09485547461287394</v>
+      </c>
+      <c r="G56">
+        <v>-0.1033170150901435</v>
+      </c>
+      <c r="H56">
+        <v>-0.02390874731149761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04208517267946661</v>
+        <v>0.04211263398123006</v>
       </c>
       <c r="C57">
-        <v>0.01633021628574347</v>
+        <v>-0.0007523835636370752</v>
       </c>
       <c r="D57">
-        <v>0.02960979559764187</v>
+        <v>-0.02012884243290781</v>
       </c>
       <c r="E57">
-        <v>0.02288554365433231</v>
+        <v>0.010313151220269</v>
       </c>
       <c r="F57">
-        <v>-0.07302726211357023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02888117400743405</v>
+      </c>
+      <c r="G57">
+        <v>0.0670648651259621</v>
+      </c>
+      <c r="H57">
+        <v>0.008035869742554354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2025087050526872</v>
+        <v>0.1498074728406733</v>
       </c>
       <c r="C58">
-        <v>0.06431738900357628</v>
+        <v>0.08061514509660354</v>
       </c>
       <c r="D58">
-        <v>0.1048939833023375</v>
+        <v>-0.1198011226406475</v>
       </c>
       <c r="E58">
-        <v>0.1982034351185115</v>
+        <v>0.1139287214417132</v>
       </c>
       <c r="F58">
-        <v>-0.3327815033557266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07281969838502804</v>
+      </c>
+      <c r="G58">
+        <v>0.6656465666447505</v>
+      </c>
+      <c r="H58">
+        <v>-0.5679115075824662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08098830014467627</v>
+        <v>0.121380829220092</v>
       </c>
       <c r="C59">
-        <v>0.09076911007177528</v>
+        <v>0.06102043818843397</v>
       </c>
       <c r="D59">
-        <v>-0.03231607174702646</v>
+        <v>0.204035003688436</v>
       </c>
       <c r="E59">
-        <v>-0.1452217149631518</v>
+        <v>0.04706094172723649</v>
       </c>
       <c r="F59">
-        <v>-0.05185290228551365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.1014903721921104</v>
+      </c>
+      <c r="G59">
+        <v>0.02607213410358566</v>
+      </c>
+      <c r="H59">
+        <v>0.02354762106733094</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1671213884427948</v>
+        <v>0.160562086681258</v>
       </c>
       <c r="C60">
-        <v>0.07196275356413094</v>
+        <v>0.07410049288317112</v>
       </c>
       <c r="D60">
-        <v>0.06327801133911856</v>
+        <v>-0.005108203006115419</v>
       </c>
       <c r="E60">
-        <v>0.02241184167774303</v>
+        <v>0.05590625511404836</v>
       </c>
       <c r="F60">
-        <v>-0.1044014988522002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.06896667840721744</v>
+      </c>
+      <c r="G60">
+        <v>0.1342212013431814</v>
+      </c>
+      <c r="H60">
+        <v>0.3672599349667331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0188520813912668</v>
+        <v>0.02153135356963329</v>
       </c>
       <c r="C61">
-        <v>0.0109853396759535</v>
+        <v>0.01157030929733447</v>
       </c>
       <c r="D61">
-        <v>0.003981240560993923</v>
+        <v>-0.03219806826987088</v>
       </c>
       <c r="E61">
-        <v>0.02013049530133743</v>
+        <v>-0.004122592078603122</v>
       </c>
       <c r="F61">
-        <v>-0.0449293919265106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03522864627542904</v>
+      </c>
+      <c r="G61">
+        <v>0.03279201472034186</v>
+      </c>
+      <c r="H61">
+        <v>0.03797849343711733</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01639983921431576</v>
+        <v>0.01412980788166607</v>
       </c>
       <c r="C63">
-        <v>0.01676228608281765</v>
+        <v>0.001860185321231164</v>
       </c>
       <c r="D63">
-        <v>0.01299363756306446</v>
+        <v>-0.004508447951808425</v>
       </c>
       <c r="E63">
-        <v>0.04518086668727447</v>
+        <v>-0.001660690919566187</v>
       </c>
       <c r="F63">
-        <v>-0.02041047567450064</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02228172484476921</v>
+      </c>
+      <c r="G63">
+        <v>0.01779536639776353</v>
+      </c>
+      <c r="H63">
+        <v>-0.01038815888655038</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02869853328668866</v>
+        <v>0.03739310321231635</v>
       </c>
       <c r="C64">
-        <v>0.02194205370595378</v>
+        <v>0.01869276621730243</v>
       </c>
       <c r="D64">
-        <v>-0.01892967388980112</v>
+        <v>-0.02803827185692953</v>
       </c>
       <c r="E64">
-        <v>0.04730860686355801</v>
+        <v>-0.01433479079013505</v>
       </c>
       <c r="F64">
-        <v>-0.02275285818182901</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03291311271047265</v>
+      </c>
+      <c r="G64">
+        <v>0.009690916738279057</v>
+      </c>
+      <c r="H64">
+        <v>0.03047873644263896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01087192238636843</v>
+        <v>0.03587622952337517</v>
       </c>
       <c r="C65">
-        <v>-0.0005354127083951995</v>
+        <v>0.004377865992770806</v>
       </c>
       <c r="D65">
-        <v>0.009135276337710663</v>
+        <v>-0.03615285148155872</v>
       </c>
       <c r="E65">
-        <v>0.005183480470928956</v>
+        <v>-0.006790726891563034</v>
       </c>
       <c r="F65">
-        <v>-0.008032578419396101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04021860351199052</v>
+      </c>
+      <c r="G65">
+        <v>0.001665409109911607</v>
+      </c>
+      <c r="H65">
+        <v>0.05901980574073837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03385163273536131</v>
+        <v>0.03049015645963445</v>
       </c>
       <c r="C66">
-        <v>0.02756612395844277</v>
+        <v>0.01430992200330241</v>
       </c>
       <c r="D66">
-        <v>0.0209367705933674</v>
+        <v>-0.06585242166928508</v>
       </c>
       <c r="E66">
-        <v>0.03882653669949484</v>
+        <v>0.00539412379426735</v>
       </c>
       <c r="F66">
-        <v>-0.04787527459827871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07071267543630214</v>
+      </c>
+      <c r="G66">
+        <v>0.04333833696654606</v>
+      </c>
+      <c r="H66">
+        <v>0.06265035904823903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0256411559272458</v>
+        <v>0.03146683699478326</v>
       </c>
       <c r="C67">
-        <v>0.008231686030373679</v>
+        <v>0.02507428433004232</v>
       </c>
       <c r="D67">
-        <v>-0.01677261104085651</v>
+        <v>0.0105000617669965</v>
       </c>
       <c r="E67">
-        <v>-0.02944220412125778</v>
+        <v>-0.002872662381922677</v>
       </c>
       <c r="F67">
-        <v>-0.01816648596030501</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01124735912199399</v>
+      </c>
+      <c r="G67">
+        <v>0.01733691081682557</v>
+      </c>
+      <c r="H67">
+        <v>0.03149158489693567</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09410785345381387</v>
+        <v>0.1250149768214551</v>
       </c>
       <c r="C68">
-        <v>0.06906993989547931</v>
+        <v>0.03955706703303892</v>
       </c>
       <c r="D68">
-        <v>-0.0507717488100528</v>
+        <v>0.1895049299748599</v>
       </c>
       <c r="E68">
-        <v>-0.1690031827780368</v>
+        <v>0.03849973341899597</v>
       </c>
       <c r="F68">
-        <v>-0.00585936928235294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1192824484268887</v>
+      </c>
+      <c r="G68">
+        <v>0.01423085923332494</v>
+      </c>
+      <c r="H68">
+        <v>-0.04867542134944983</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07193335211932013</v>
+        <v>0.05523677341229668</v>
       </c>
       <c r="C69">
-        <v>0.03336560549900702</v>
+        <v>0.0416838166731849</v>
       </c>
       <c r="D69">
-        <v>0.02436190801303297</v>
+        <v>-0.02172302926309939</v>
       </c>
       <c r="E69">
-        <v>0.01464474888502666</v>
+        <v>0.005180531956307314</v>
       </c>
       <c r="F69">
-        <v>-0.02147665618917107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03241962466083232</v>
+      </c>
+      <c r="G69">
+        <v>-0.006107049193502719</v>
+      </c>
+      <c r="H69">
+        <v>-0.009963054958607149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1086686107223433</v>
+        <v>0.120479180350367</v>
       </c>
       <c r="C71">
-        <v>0.07200688458692123</v>
+        <v>0.04778774690846899</v>
       </c>
       <c r="D71">
-        <v>-0.02548736006049056</v>
+        <v>0.1786230548721462</v>
       </c>
       <c r="E71">
-        <v>-0.2226869059079921</v>
+        <v>0.04189889276748195</v>
       </c>
       <c r="F71">
-        <v>-0.03340796533284514</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1279466835171968</v>
+      </c>
+      <c r="G71">
+        <v>0.01926981542193958</v>
+      </c>
+      <c r="H71">
+        <v>-0.02310540444800513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1130363631293344</v>
+        <v>0.08382542602263479</v>
       </c>
       <c r="C72">
-        <v>0.1171438636876757</v>
+        <v>0.06470648118855367</v>
       </c>
       <c r="D72">
-        <v>0.02163202713581646</v>
+        <v>-0.05623748887569673</v>
       </c>
       <c r="E72">
-        <v>0.1073133025665827</v>
+        <v>0.006460790600841254</v>
       </c>
       <c r="F72">
-        <v>-0.08246923986474446</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1320711985989087</v>
+      </c>
+      <c r="G72">
+        <v>0.0912174115136767</v>
+      </c>
+      <c r="H72">
+        <v>0.1313727013626317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2495949797921213</v>
+        <v>0.229212287229908</v>
       </c>
       <c r="C73">
-        <v>0.1041657264629282</v>
+        <v>0.1005898630495672</v>
       </c>
       <c r="D73">
-        <v>0.0619449273430065</v>
+        <v>-0.0329115649370833</v>
       </c>
       <c r="E73">
-        <v>-0.02048297378267672</v>
+        <v>0.08713981940296248</v>
       </c>
       <c r="F73">
-        <v>-0.2183255897169025</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08170246795044138</v>
+      </c>
+      <c r="G73">
+        <v>0.2058756828828899</v>
+      </c>
+      <c r="H73">
+        <v>0.5109902619843442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1225159301749043</v>
+        <v>0.1055640208363077</v>
       </c>
       <c r="C74">
-        <v>0.04437047369775501</v>
+        <v>0.07520523014989522</v>
       </c>
       <c r="D74">
-        <v>0.02980714783962513</v>
+        <v>-0.06003019134345187</v>
       </c>
       <c r="E74">
-        <v>0.04177177299061666</v>
+        <v>0.003964080739114291</v>
       </c>
       <c r="F74">
-        <v>0.120052236829043</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08058175054121415</v>
+      </c>
+      <c r="G74">
+        <v>-0.08650767064455572</v>
+      </c>
+      <c r="H74">
+        <v>-0.009749490952463601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.216762684239821</v>
+        <v>0.2108153683931871</v>
       </c>
       <c r="C75">
-        <v>0.1163900514172238</v>
+        <v>0.1516725479726057</v>
       </c>
       <c r="D75">
-        <v>0.06641159782737166</v>
+        <v>-0.07500905121731477</v>
       </c>
       <c r="E75">
-        <v>0.09072383656078478</v>
+        <v>0.0248718645593305</v>
       </c>
       <c r="F75">
-        <v>0.1802099626215813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1503484373773485</v>
+      </c>
+      <c r="G75">
+        <v>-0.1621603985672803</v>
+      </c>
+      <c r="H75">
+        <v>-0.08532834959458695</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2566510811808279</v>
+        <v>0.1982438614137799</v>
       </c>
       <c r="C76">
-        <v>0.1308218558430707</v>
+        <v>0.147044757248582</v>
       </c>
       <c r="D76">
-        <v>0.012405420984247</v>
+        <v>-0.07292745810640039</v>
       </c>
       <c r="E76">
-        <v>0.07690583564720679</v>
+        <v>-0.01522566569604327</v>
       </c>
       <c r="F76">
-        <v>0.2018462314331332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1554834696394541</v>
+      </c>
+      <c r="G76">
+        <v>-0.1808495740753394</v>
+      </c>
+      <c r="H76">
+        <v>-0.09130799066800033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1277658310782896</v>
+        <v>0.07282798922071562</v>
       </c>
       <c r="C77">
-        <v>-0.01654536922093957</v>
+        <v>0.02516701675223112</v>
       </c>
       <c r="D77">
-        <v>0.06228318129479939</v>
+        <v>-0.07515673954938833</v>
       </c>
       <c r="E77">
-        <v>0.07115488101955843</v>
+        <v>0.01075376615219797</v>
       </c>
       <c r="F77">
-        <v>-0.1891060887417842</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.009918993347215001</v>
+      </c>
+      <c r="G77">
+        <v>0.1177051222857564</v>
+      </c>
+      <c r="H77">
+        <v>-0.07302685613734124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04779099547821838</v>
+        <v>0.03493585423074342</v>
       </c>
       <c r="C78">
-        <v>0.01227645577299438</v>
+        <v>0.01771364566277321</v>
       </c>
       <c r="D78">
-        <v>0.02949080357892079</v>
+        <v>-0.05231988465548058</v>
       </c>
       <c r="E78">
-        <v>0.1039139868411737</v>
+        <v>-0.005784884019435649</v>
       </c>
       <c r="F78">
-        <v>-0.0301157354818221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05222386682005654</v>
+      </c>
+      <c r="G78">
+        <v>0.04818122043224837</v>
+      </c>
+      <c r="H78">
+        <v>0.02861131247667473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1957609289366967</v>
+        <v>0.168253889144073</v>
       </c>
       <c r="C80">
-        <v>-0.1402615465236702</v>
+        <v>0.08994154260556021</v>
       </c>
       <c r="D80">
-        <v>-0.9274767859971896</v>
+        <v>0.02508956618487133</v>
       </c>
       <c r="E80">
-        <v>0.2411166651746541</v>
+        <v>-0.9610049853287651</v>
       </c>
       <c r="F80">
-        <v>-0.04524606288061237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.1086260954060732</v>
+      </c>
+      <c r="G80">
+        <v>0.1038438176107487</v>
+      </c>
+      <c r="H80">
+        <v>0.007245115615614276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1531645936655451</v>
+        <v>0.1430418918432863</v>
       </c>
       <c r="C81">
-        <v>0.1051814448289523</v>
+        <v>0.1029748483921219</v>
       </c>
       <c r="D81">
-        <v>0.02166207694777076</v>
+        <v>-0.04606692136496156</v>
       </c>
       <c r="E81">
-        <v>0.07224333414868535</v>
+        <v>0.001763194744746548</v>
       </c>
       <c r="F81">
-        <v>0.1808752066296784</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1095120860308753</v>
+      </c>
+      <c r="G81">
+        <v>-0.1142908384717336</v>
+      </c>
+      <c r="H81">
+        <v>-0.07061693747391382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04802211257983279</v>
+        <v>0.03700946223153735</v>
       </c>
       <c r="C83">
-        <v>-0.00934925146541964</v>
+        <v>0.0154731743809129</v>
       </c>
       <c r="D83">
-        <v>0.03815550383667857</v>
+        <v>-0.01919083201177876</v>
       </c>
       <c r="E83">
-        <v>0.03486763334432154</v>
+        <v>0.01319647196496902</v>
       </c>
       <c r="F83">
-        <v>-0.07092110675597381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01364372110713989</v>
+      </c>
+      <c r="G83">
+        <v>0.05552303070321156</v>
+      </c>
+      <c r="H83">
+        <v>0.01732499475670045</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2246496644079863</v>
+        <v>0.2011172480627278</v>
       </c>
       <c r="C85">
-        <v>0.09838740471863361</v>
+        <v>0.1310231049102119</v>
       </c>
       <c r="D85">
-        <v>0.03666429004430867</v>
+        <v>-0.09427269410449365</v>
       </c>
       <c r="E85">
-        <v>0.0635984119886307</v>
+        <v>0.01245991549253039</v>
       </c>
       <c r="F85">
-        <v>0.1990102249397607</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1412571155829718</v>
+      </c>
+      <c r="G85">
+        <v>-0.1690969536196287</v>
+      </c>
+      <c r="H85">
+        <v>-0.0618858601396254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003795570185540748</v>
+        <v>0.01103840465615218</v>
       </c>
       <c r="C86">
-        <v>-0.004413888205151732</v>
+        <v>-0.0004899471605922575</v>
       </c>
       <c r="D86">
-        <v>0.004868575949250329</v>
+        <v>-0.01053841734530251</v>
       </c>
       <c r="E86">
-        <v>0.0686679375929692</v>
+        <v>0.006788021240620096</v>
       </c>
       <c r="F86">
-        <v>-0.06959305050704351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.008276402468147787</v>
+      </c>
+      <c r="G86">
+        <v>0.07634712089642268</v>
+      </c>
+      <c r="H86">
+        <v>0.03391207353749585</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02631578787310776</v>
+        <v>0.02469591333345103</v>
       </c>
       <c r="C87">
-        <v>0.01011083981768933</v>
+        <v>0.007753630161576701</v>
       </c>
       <c r="D87">
-        <v>0.008079941303125247</v>
+        <v>-0.02433148973237054</v>
       </c>
       <c r="E87">
-        <v>0.03555847578758092</v>
+        <v>-0.0006873327917549982</v>
       </c>
       <c r="F87">
-        <v>-0.06460246852479282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03025697862361252</v>
+      </c>
+      <c r="G87">
+        <v>0.08784797873713619</v>
+      </c>
+      <c r="H87">
+        <v>0.02459418909081559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.008108316139309135</v>
+        <v>0.04064380548476633</v>
       </c>
       <c r="C88">
-        <v>0.02072756125003479</v>
+        <v>-0.001342308383949412</v>
       </c>
       <c r="D88">
-        <v>-0.02189495143231798</v>
+        <v>0.009370869371550201</v>
       </c>
       <c r="E88">
-        <v>-0.002927306482277901</v>
+        <v>-0.005844234881918895</v>
       </c>
       <c r="F88">
-        <v>-0.02944208114874854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01110410648381445</v>
+      </c>
+      <c r="G88">
+        <v>-0.003614529843484192</v>
+      </c>
+      <c r="H88">
+        <v>0.0121349411093617</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1254817176247283</v>
+        <v>0.1943645263625774</v>
       </c>
       <c r="C89">
-        <v>0.0861519364264005</v>
+        <v>0.07269391382039733</v>
       </c>
       <c r="D89">
-        <v>-0.03463437224807927</v>
+        <v>0.3162369734322447</v>
       </c>
       <c r="E89">
-        <v>-0.3085032885712804</v>
+        <v>0.08892471404060624</v>
       </c>
       <c r="F89">
-        <v>-0.08730704385906399</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1923916953832148</v>
+      </c>
+      <c r="G89">
+        <v>0.008529210625583818</v>
+      </c>
+      <c r="H89">
+        <v>-0.01886644611447845</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.117723533826158</v>
+        <v>0.1511158705308415</v>
       </c>
       <c r="C90">
-        <v>0.09158926496887232</v>
+        <v>0.05674719392493562</v>
       </c>
       <c r="D90">
-        <v>-0.08585929728550351</v>
+        <v>0.2744942308272939</v>
       </c>
       <c r="E90">
-        <v>-0.2799406978232292</v>
+        <v>0.05823193588251344</v>
       </c>
       <c r="F90">
-        <v>-0.05330936956005181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.179021575661634</v>
+      </c>
+      <c r="G90">
+        <v>-0.02922447165058214</v>
+      </c>
+      <c r="H90">
+        <v>-0.03812423752013682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2872758736656627</v>
+        <v>0.220852533019699</v>
       </c>
       <c r="C91">
-        <v>0.09999380911139683</v>
+        <v>0.156026009635867</v>
       </c>
       <c r="D91">
-        <v>0.06163067385030498</v>
+        <v>-0.0908031541668361</v>
       </c>
       <c r="E91">
-        <v>0.06141371185316904</v>
+        <v>0.01730716670326736</v>
       </c>
       <c r="F91">
-        <v>0.2463016337144939</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.146166035731485</v>
+      </c>
+      <c r="G91">
+        <v>-0.2187410974376587</v>
+      </c>
+      <c r="H91">
+        <v>-0.1142518415220457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1821669219493038</v>
+        <v>0.2069688322471971</v>
       </c>
       <c r="C92">
-        <v>0.08637420926478337</v>
+        <v>0.139176232041165</v>
       </c>
       <c r="D92">
-        <v>-0.1098975559507915</v>
+        <v>0.244243381731693</v>
       </c>
       <c r="E92">
-        <v>-0.4648103034430176</v>
+        <v>0.04661550068969979</v>
       </c>
       <c r="F92">
-        <v>-0.1218438986007524</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1535125382026604</v>
+      </c>
+      <c r="G92">
+        <v>-0.03775852308810709</v>
+      </c>
+      <c r="H92">
+        <v>-0.1265063193591296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1302839752393165</v>
+        <v>0.1729087045452613</v>
       </c>
       <c r="C93">
-        <v>0.07292189619835789</v>
+        <v>0.07217695728033076</v>
       </c>
       <c r="D93">
-        <v>-0.09580198674528921</v>
+        <v>0.2921694230504753</v>
       </c>
       <c r="E93">
-        <v>-0.391024368917952</v>
+        <v>0.07522074326536309</v>
       </c>
       <c r="F93">
-        <v>-0.001917646374424617</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2185117518893483</v>
+      </c>
+      <c r="G93">
+        <v>-0.03178092825508817</v>
+      </c>
+      <c r="H93">
+        <v>0.01689617984564985</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2631294680513714</v>
+        <v>0.2411553173137044</v>
       </c>
       <c r="C94">
-        <v>0.1325457423866016</v>
+        <v>0.1493120346151279</v>
       </c>
       <c r="D94">
-        <v>0.03481789666695682</v>
+        <v>-0.06507036921640309</v>
       </c>
       <c r="E94">
-        <v>0.08368761447930011</v>
+        <v>0.03514268637439266</v>
       </c>
       <c r="F94">
-        <v>0.3001232492378154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1651580307171527</v>
+      </c>
+      <c r="G94">
+        <v>-0.2326703999621072</v>
+      </c>
+      <c r="H94">
+        <v>-0.1284933328795041</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08370457790083924</v>
+        <v>0.06380086531564566</v>
       </c>
       <c r="C95">
-        <v>0.02207531580733528</v>
+        <v>0.0477818700082317</v>
       </c>
       <c r="D95">
-        <v>0.06943723853566254</v>
+        <v>-0.07380707686218929</v>
       </c>
       <c r="E95">
-        <v>0.07479495744169015</v>
+        <v>0.07117398616692724</v>
       </c>
       <c r="F95">
-        <v>-0.04906865218952395</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03448399427428607</v>
+      </c>
+      <c r="G95">
+        <v>0.06474950660692055</v>
+      </c>
+      <c r="H95">
+        <v>0.009225246114188611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1872077220476772</v>
+        <v>0.1636196629501394</v>
       </c>
       <c r="C98">
-        <v>0.05155672087516953</v>
+        <v>0.1056388742201918</v>
       </c>
       <c r="D98">
-        <v>0.0445528426855314</v>
+        <v>-0.01845826433220845</v>
       </c>
       <c r="E98">
-        <v>-0.06726917715480855</v>
+        <v>0.05832000224387027</v>
       </c>
       <c r="F98">
-        <v>-0.0863344422124967</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.03255361408717571</v>
+      </c>
+      <c r="G98">
+        <v>0.1714244920739368</v>
+      </c>
+      <c r="H98">
+        <v>0.3621267611642451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0028913974274955</v>
+        <v>0.01399307792065288</v>
       </c>
       <c r="C101">
-        <v>0.02878525490400354</v>
+        <v>0.00322600851699673</v>
       </c>
       <c r="D101">
-        <v>0.01223132948597807</v>
+        <v>-0.004129015015341364</v>
       </c>
       <c r="E101">
-        <v>0.1205222957062132</v>
+        <v>-0.004332624923859787</v>
       </c>
       <c r="F101">
-        <v>-0.1930190070864739</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03708137610480414</v>
+      </c>
+      <c r="G101">
+        <v>0.09399438003011588</v>
+      </c>
+      <c r="H101">
+        <v>-0.07336443932950387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0933095728176969</v>
+        <v>0.1027514652789301</v>
       </c>
       <c r="C102">
-        <v>0.02889604136130037</v>
+        <v>0.05899418808279613</v>
       </c>
       <c r="D102">
-        <v>0.01513113118434244</v>
+        <v>-0.04590006487992392</v>
       </c>
       <c r="E102">
-        <v>0.08083774919191322</v>
+        <v>-9.207779522032051e-05</v>
       </c>
       <c r="F102">
-        <v>0.135477302792949</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.07360324387795783</v>
+      </c>
+      <c r="G102">
+        <v>-0.1013532587428585</v>
+      </c>
+      <c r="H102">
+        <v>-0.05345344070901716</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02354872082857446</v>
+        <v>0.0212870866829214</v>
       </c>
       <c r="C103">
-        <v>0.0110732834197375</v>
+        <v>0.01327957114038247</v>
       </c>
       <c r="D103">
-        <v>0.01060612509611598</v>
+        <v>-0.01087794947990788</v>
       </c>
       <c r="E103">
-        <v>0.01019846891842232</v>
+        <v>-0.005794184235270474</v>
       </c>
       <c r="F103">
-        <v>0.02469202759315667</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01827548446961201</v>
+      </c>
+      <c r="G103">
+        <v>-0.01020709826282057</v>
+      </c>
+      <c r="H103">
+        <v>-0.00916931664640519</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4584593748599192</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8654144148340923</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.0672116777822821</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02026912099705825</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1561391886565145</v>
+      </c>
+      <c r="G104">
+        <v>-0.04102852837913133</v>
+      </c>
+      <c r="H104">
+        <v>-0.03156116837256744</v>
       </c>
     </row>
   </sheetData>
